--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H2">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I2">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J2">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N2">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O2">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P2">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q2">
-        <v>0.3862676060137378</v>
+        <v>1.203617707538889</v>
       </c>
       <c r="R2">
-        <v>0.3862676060137378</v>
+        <v>10.83255936785</v>
       </c>
       <c r="S2">
-        <v>0.0005823135852791931</v>
+        <v>0.001382035224374537</v>
       </c>
       <c r="T2">
-        <v>0.0005823135852791931</v>
+        <v>0.001382035224374537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H3">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I3">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J3">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N3">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q3">
-        <v>5.432899823125943</v>
+        <v>12.943580098506</v>
       </c>
       <c r="R3">
-        <v>5.432899823125943</v>
+        <v>116.492220886554</v>
       </c>
       <c r="S3">
-        <v>0.0081903098401543</v>
+        <v>0.01486226358552518</v>
       </c>
       <c r="T3">
-        <v>0.0081903098401543</v>
+        <v>0.01486226358552519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H4">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I4">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J4">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N4">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q4">
-        <v>2.128622026252264</v>
+        <v>5.498609550438667</v>
       </c>
       <c r="R4">
-        <v>2.128622026252264</v>
+        <v>49.487485953948</v>
       </c>
       <c r="S4">
-        <v>0.003208981298232738</v>
+        <v>0.006313692492383794</v>
       </c>
       <c r="T4">
-        <v>0.003208981298232738</v>
+        <v>0.006313692492383795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H5">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I5">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J5">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N5">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q5">
-        <v>3.028413724607651</v>
+        <v>7.493703845613334</v>
       </c>
       <c r="R5">
-        <v>3.028413724607651</v>
+        <v>67.44333461052</v>
       </c>
       <c r="S5">
-        <v>0.00456545261945232</v>
+        <v>0.008604528340518728</v>
       </c>
       <c r="T5">
-        <v>0.00456545261945232</v>
+        <v>0.008604528340518733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H6">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I6">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J6">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N6">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q6">
-        <v>0.4323597227747631</v>
+        <v>1.035390072638</v>
       </c>
       <c r="R6">
-        <v>0.4323597227747631</v>
+        <v>9.318510653742001</v>
       </c>
       <c r="S6">
-        <v>0.000651799261391689</v>
+        <v>0.001188870471405218</v>
       </c>
       <c r="T6">
-        <v>0.000651799261391689</v>
+        <v>0.001188870471405218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H7">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I7">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J7">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N7">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q7">
-        <v>4.463427555823891</v>
+        <v>13.214796346664</v>
       </c>
       <c r="R7">
-        <v>4.463427555823891</v>
+        <v>118.933167119976</v>
       </c>
       <c r="S7">
-        <v>0.006728792324804261</v>
+        <v>0.01517368340431756</v>
       </c>
       <c r="T7">
-        <v>0.006728792324804261</v>
+        <v>0.01517368340431757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J8">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N8">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O8">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P8">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q8">
-        <v>9.402530663781064</v>
+        <v>12.397533916625</v>
       </c>
       <c r="R8">
-        <v>9.402530663781064</v>
+        <v>111.577805249625</v>
       </c>
       <c r="S8">
-        <v>0.01417468422482514</v>
+        <v>0.01423527458995959</v>
       </c>
       <c r="T8">
-        <v>0.01417468422482514</v>
+        <v>0.0142352745899596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J9">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N9">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P9">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q9">
-        <v>132.2477121686865</v>
+        <v>133.321795009065</v>
       </c>
       <c r="R9">
-        <v>132.2477121686865</v>
+        <v>1199.896155081585</v>
       </c>
       <c r="S9">
-        <v>0.1993686196278642</v>
+        <v>0.1530846677689111</v>
       </c>
       <c r="T9">
-        <v>0.1993686196278642</v>
+        <v>0.1530846677689111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J10">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N10">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O10">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P10">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q10">
-        <v>51.81494270250783</v>
+        <v>56.63691882303001</v>
       </c>
       <c r="R10">
-        <v>51.81494270250783</v>
+        <v>509.7322694072701</v>
       </c>
       <c r="S10">
-        <v>0.07811306096183532</v>
+        <v>0.06503245700291402</v>
       </c>
       <c r="T10">
-        <v>0.07811306096183532</v>
+        <v>0.06503245700291403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J11">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N11">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O11">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P11">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q11">
-        <v>73.71768293514663</v>
+        <v>77.18684014470001</v>
       </c>
       <c r="R11">
-        <v>73.71768293514663</v>
+        <v>694.6815613023001</v>
       </c>
       <c r="S11">
-        <v>0.1111323020106255</v>
+        <v>0.08862858303760483</v>
       </c>
       <c r="T11">
-        <v>0.1111323020106255</v>
+        <v>0.08862858303760487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J12">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N12">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O12">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P12">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q12">
-        <v>10.52450551866627</v>
+        <v>10.664751325995</v>
       </c>
       <c r="R12">
-        <v>10.52450551866627</v>
+        <v>95.98276193395502</v>
       </c>
       <c r="S12">
-        <v>0.01586610537992472</v>
+        <v>0.01224563405755969</v>
       </c>
       <c r="T12">
-        <v>0.01586610537992472</v>
+        <v>0.0122456340575597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H13">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I13">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J13">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N13">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O13">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P13">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q13">
-        <v>108.6488066972588</v>
+        <v>136.11538354986</v>
       </c>
       <c r="R13">
-        <v>108.6488066972588</v>
+        <v>1225.03845194874</v>
       </c>
       <c r="S13">
-        <v>0.1637923428710628</v>
+        <v>0.1562923621569259</v>
       </c>
       <c r="T13">
-        <v>0.1637923428710628</v>
+        <v>0.1562923621569259</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H14">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I14">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J14">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N14">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O14">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P14">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q14">
-        <v>6.354350902730439</v>
+        <v>0.04715557430833334</v>
       </c>
       <c r="R14">
-        <v>6.354350902730439</v>
+        <v>0.424400168775</v>
       </c>
       <c r="S14">
-        <v>0.009579433529197988</v>
+        <v>5.414565132394576E-05</v>
       </c>
       <c r="T14">
-        <v>0.009579433529197988</v>
+        <v>5.414565132394578E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H15">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I15">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J15">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N15">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P15">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q15">
-        <v>89.37470126422292</v>
+        <v>0.5071061594790001</v>
       </c>
       <c r="R15">
-        <v>89.37470126422292</v>
+        <v>4.563955435311001</v>
       </c>
       <c r="S15">
-        <v>0.1347358720124604</v>
+        <v>0.000582276723337942</v>
       </c>
       <c r="T15">
-        <v>0.1347358720124604</v>
+        <v>0.0005822767233379421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H16">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I16">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J16">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N16">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O16">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P16">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q16">
-        <v>35.01720331579374</v>
+        <v>0.2154256202980001</v>
       </c>
       <c r="R16">
-        <v>35.01720331579374</v>
+        <v>1.938830582682</v>
       </c>
       <c r="S16">
-        <v>0.05278980916806437</v>
+        <v>0.000247359102163218</v>
       </c>
       <c r="T16">
-        <v>0.05278980916806437</v>
+        <v>0.0002473591021632181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H17">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I17">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J17">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N17">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O17">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P17">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q17">
-        <v>49.81935628357473</v>
+        <v>0.2935898220200001</v>
       </c>
       <c r="R17">
-        <v>49.81935628357473</v>
+        <v>2.64230839818</v>
       </c>
       <c r="S17">
-        <v>0.07510463606611142</v>
+        <v>0.0003371099253592372</v>
       </c>
       <c r="T17">
-        <v>0.07510463606611142</v>
+        <v>0.0003371099253592374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H18">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I18">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J18">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N18">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O18">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P18">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q18">
-        <v>7.112595910049953</v>
+        <v>0.040564718517</v>
       </c>
       <c r="R18">
-        <v>7.112595910049953</v>
+        <v>0.365082466653</v>
       </c>
       <c r="S18">
-        <v>0.01072251765496485</v>
+        <v>4.657780415341778E-05</v>
       </c>
       <c r="T18">
-        <v>0.01072251765496485</v>
+        <v>4.657780415341778E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.024707</v>
+      </c>
+      <c r="H19">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J19">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.954868</v>
+      </c>
+      <c r="N19">
+        <v>62.864604</v>
+      </c>
+      <c r="O19">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="P19">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="Q19">
+        <v>0.5177319236760001</v>
+      </c>
+      <c r="R19">
+        <v>4.659587313084001</v>
+      </c>
+      <c r="S19">
+        <v>0.0005944775910338647</v>
+      </c>
+      <c r="T19">
+        <v>0.0005944775910338648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H20">
+        <v>18.355384</v>
+      </c>
+      <c r="I20">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J20">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.908591666666666</v>
+      </c>
+      <c r="N20">
+        <v>5.725775</v>
+      </c>
+      <c r="O20">
+        <v>0.02908012806830959</v>
+      </c>
+      <c r="P20">
+        <v>0.0290801280683096</v>
+      </c>
+      <c r="Q20">
+        <v>11.67764431362222</v>
+      </c>
+      <c r="R20">
+        <v>105.0987988226</v>
+      </c>
+      <c r="S20">
+        <v>0.01340867260265151</v>
+      </c>
+      <c r="T20">
+        <v>0.01340867260265152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H21">
+        <v>18.355384</v>
+      </c>
+      <c r="I21">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J21">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.524797</v>
+      </c>
+      <c r="N21">
+        <v>61.574391</v>
+      </c>
+      <c r="O21">
+        <v>0.3127246837341967</v>
+      </c>
+      <c r="P21">
+        <v>0.3127246837341967</v>
+      </c>
+      <c r="Q21">
+        <v>125.580176819016</v>
+      </c>
+      <c r="R21">
+        <v>1130.221591371144</v>
+      </c>
+      <c r="S21">
+        <v>0.1441954756564224</v>
+      </c>
+      <c r="T21">
+        <v>0.1441954756564225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H22">
+        <v>18.355384</v>
+      </c>
+      <c r="I22">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J22">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.719214000000001</v>
+      </c>
+      <c r="N22">
+        <v>26.157642</v>
+      </c>
+      <c r="O22">
+        <v>0.132849715422802</v>
+      </c>
+      <c r="P22">
+        <v>0.132849715422802</v>
+      </c>
+      <c r="Q22">
+        <v>53.34817371605867</v>
+      </c>
+      <c r="R22">
+        <v>480.1335634445281</v>
+      </c>
+      <c r="S22">
+        <v>0.06125620682534096</v>
+      </c>
+      <c r="T22">
+        <v>0.06125620682534098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H23">
+        <v>18.355384</v>
+      </c>
+      <c r="I23">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J23">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.88286</v>
+      </c>
+      <c r="N23">
+        <v>35.64858</v>
+      </c>
+      <c r="O23">
+        <v>0.1810523941044453</v>
+      </c>
+      <c r="P23">
+        <v>0.1810523941044453</v>
+      </c>
+      <c r="Q23">
+        <v>72.70481943941334</v>
+      </c>
+      <c r="R23">
+        <v>654.34337495472</v>
+      </c>
+      <c r="S23">
+        <v>0.08348217280096244</v>
+      </c>
+      <c r="T23">
+        <v>0.08348217280096247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.3578148846648</v>
-      </c>
-      <c r="H19">
-        <v>4.3578148846648</v>
-      </c>
-      <c r="I19">
-        <v>0.3936252359945479</v>
-      </c>
-      <c r="J19">
-        <v>0.3936252359945479</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>16.84932930869</v>
-      </c>
-      <c r="N19">
-        <v>16.84932930869</v>
-      </c>
-      <c r="O19">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="P19">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="Q19">
-        <v>73.42625805802815</v>
-      </c>
-      <c r="R19">
-        <v>73.42625805802815</v>
-      </c>
-      <c r="S19">
-        <v>0.1106929675637489</v>
-      </c>
-      <c r="T19">
-        <v>0.1106929675637489</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H24">
+        <v>18.355384</v>
+      </c>
+      <c r="I24">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J24">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.641831</v>
+      </c>
+      <c r="N24">
+        <v>4.925493</v>
+      </c>
+      <c r="O24">
+        <v>0.02501564718130951</v>
+      </c>
+      <c r="P24">
+        <v>0.02501564718130951</v>
+      </c>
+      <c r="Q24">
+        <v>10.045479489368</v>
+      </c>
+      <c r="R24">
+        <v>90.40931540431201</v>
+      </c>
+      <c r="S24">
+        <v>0.01153456484819117</v>
+      </c>
+      <c r="T24">
+        <v>0.01153456484819118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H25">
+        <v>18.355384</v>
+      </c>
+      <c r="I25">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J25">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.954868</v>
+      </c>
+      <c r="N25">
+        <v>62.864604</v>
+      </c>
+      <c r="O25">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="P25">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="Q25">
+        <v>128.211549603104</v>
+      </c>
+      <c r="R25">
+        <v>1153.903946427936</v>
+      </c>
+      <c r="S25">
+        <v>0.1472169083366595</v>
+      </c>
+      <c r="T25">
+        <v>0.1472169083366596</v>
       </c>
     </row>
   </sheetData>
